--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -1,69 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Email-Automation-Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D6D694-21BB-4803-AA4F-F62DB7E71AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1800" yWindow="1365" windowWidth="27000" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Đào Duy Thông</t>
+  </si>
+  <si>
+    <t>duythong.ptit@gmail.com</t>
+  </si>
+  <si>
+    <t>Tống Ngọc Kiên</t>
+  </si>
+  <si>
+    <t>duythong020703@gmail.com</t>
+  </si>
+  <si>
+    <t>https://so-media-potral.vercel.app/passcv/-O_Sl6QoO5_Mtn-Xw_Ja</t>
+  </si>
+  <si>
+    <t>https://so-media-potral.vercel.app/passcv/-O_SjCTkzCnBBkjEs7OW</t>
+  </si>
+  <si>
+    <t>$NAME</t>
+  </si>
+  <si>
+    <t>$NOTIFICATION_URL</t>
+  </si>
+  <si>
+    <t>ddcamtus216@gmail.com</t>
+  </si>
+  <si>
+    <t>vtphth716@gmail.com</t>
+  </si>
+  <si>
+    <t>Đào Dương Cẩm Tú</t>
+  </si>
+  <si>
+    <t>Vũ Thị Phương Thảo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF0563C1"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color theme="10"/>
-      <sz val="10"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF1F1F1F"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,95 +132,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -360,89 +374,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="31.21875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Đào Duy Thông</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>duythong.ptit@gmail.com</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="b">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Tống Ngọc Kiên</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>duythong020703@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="3" t="n"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="3" t="n"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="3" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="3" t="n"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{27F1193B-668C-4914-89E8-38BB2A3327C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Email-Automation-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D6D694-21BB-4803-AA4F-F62DB7E71AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D4B31-8BAF-43C7-A220-DD2FB13647E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1365" windowWidth="27000" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>$NAME</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>$NOTIFICATION_URL</t>
+  </si>
+  <si>
     <t>Đào Duy Thông</t>
   </si>
   <si>
     <t>duythong.ptit@gmail.com</t>
   </si>
   <si>
+    <t>https://so-media-potral.vercel.app/passinterview/-O_75N9xzUIZDYnUcP5j</t>
+  </si>
+  <si>
     <t>Tống Ngọc Kiên</t>
   </si>
   <si>
     <t>duythong020703@gmail.com</t>
   </si>
   <si>
-    <t>https://so-media-potral.vercel.app/passcv/-O_Sl6QoO5_Mtn-Xw_Ja</t>
-  </si>
-  <si>
-    <t>https://so-media-potral.vercel.app/passcv/-O_SjCTkzCnBBkjEs7OW</t>
-  </si>
-  <si>
-    <t>$NAME</t>
-  </si>
-  <si>
-    <t>$NOTIFICATION_URL</t>
+    <t>Vũ Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Đào Dương Cẩm Tú</t>
+  </si>
+  <si>
+    <t>Nguyễn Đoan Trang</t>
+  </si>
+  <si>
+    <t>vtphth716@gmail.com</t>
+  </si>
+  <si>
+    <t>kimcotton124@gmail.com</t>
   </si>
   <si>
     <t>ddcamtus216@gmail.com</t>
-  </si>
-  <si>
-    <t>vtphth716@gmail.com</t>
-  </si>
-  <si>
-    <t>Đào Dương Cẩm Tú</t>
-  </si>
-  <si>
-    <t>Vũ Thị Phương Thảo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -96,35 +99,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,33 +116,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -378,86 +346,87 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{27F1193B-668C-4914-89E8-38BB2A3327C9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C1005ABA-DA90-4F0D-B172-DA27DB05595C}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{13E2075A-775C-496D-9B57-9731AADBD02F}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{3B283CDF-C387-4EE0-8803-940C32104900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
